--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_014.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_014.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
+    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
+  </si>
+  <si>
     <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
   </si>
   <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
+  </si>
+  <si>
+    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(700000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Over-excitation</t>
+  </si>
+  <si>
+    <t>(295026EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) SLCS injection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
+  </si>
+  <si>
+    <t>(295016AK2.01) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Remote shutdown panel</t>
+  </si>
+  <si>
+    <t>(295037EA2.09) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM air header pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Fuel positioning</t>
+  </si>
+  <si>
+    <t>(295021AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Installing fuel pool gates</t>
+  </si>
+  <si>
+    <t>(295006AA1.04) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295025EK2.04) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) ARI/RPT/ATWS</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
+  </si>
+  <si>
+    <t>(295030EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295018AA1.06) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(500000EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for drywell</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295033EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(295020AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Reactor pressure response</t>
+  </si>
+  <si>
+    <t>(295007AA1.09) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(295034EK2.02) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Area radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(510000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(264000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant loads</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(259002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(203000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Vortex limits</t>
+  </si>
+  <si>
+    <t>(205000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
+  </si>
+  <si>
+    <t>(209002A2.21) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent initiation</t>
+  </si>
+  <si>
+    <t>(215003K4.11) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM SCRAM signals</t>
+  </si>
+  <si>
+    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291002K1.05) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Operation of a flow D/P cell-type flow detector</t>
+  </si>
+  <si>
+    <t>(261000A4.03) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Fan</t>
+  </si>
+  <si>
+    <t>(215005A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.5 / 45.5) APRM (gain adjustment factor)</t>
+  </si>
+  <si>
+    <t>(209001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Testable check valve operation</t>
+  </si>
+  <si>
+    <t>(212000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(262001K4.01) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Lockouts</t>
+  </si>
+  <si>
+    <t>(510000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(271000A2.16) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Loss of offgas system loop seals</t>
+  </si>
+  <si>
+    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(202001K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(202002K3.05) Knowledge of the effect that a loss or malfunction of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation pump speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201005A3.03) Ability to monitor automatic operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.7 / 45.7) Verification of proper functioning/operability </t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (291004K1.06) PUMPS (CFR: 41.3) (CENTRIFUGAL) Need for net positive suction head (NPSH); effects of loss of suction</t>
+  </si>
+  <si>
+    <t>(510001A4.03) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Cooling tower basin level</t>
+  </si>
+  <si>
+    <t>(233000A1.13) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Closed cooling water temperature</t>
+  </si>
+  <si>
+    <t>(286000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FPS) FIRE PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Heat detection</t>
+  </si>
+  <si>
+    <t>(272000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.7) DC power</t>
+  </si>
+  <si>
+    <t>(215001K2.01) (SF7 TIP) TRAVERSING IN CORE PROBE Knowledge of electrical power supplies to the following: (CFR: 41.7) Shear valves (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
+  </si>
+  <si>
+    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
+  </si>
+  <si>
+    <t>(292008K1.14) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Describe three parameters to be monitored and controlled during heatup</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293006K1.18) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain how operating a centrifugal pump at shutoff head may cause overheating of the pump and describe methods used to avoid overheating</t>
+  </si>
+  <si>
+    <t>(293009K1.14) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Explain the mechanisms most limiting for each region</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
   </si>
   <si>
-    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295038EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
-  </si>
-  <si>
-    <t>(700000AK2.01) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Motors</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.07) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(295025EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Isolation condenser initiation (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(600000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm</t>
-  </si>
-  <si>
-    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
-  </si>
-  <si>
-    <t>(295026EK2.11) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(295018AA1.03) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Affected systems so as to isolate damaged portions</t>
-  </si>
-  <si>
-    <t>(295030EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) SRV discharge submergence</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(295036EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.5 / 41.10 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295012AA1.02) Ability to operate and/or monitor the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.7 / 45.6) Drywell cooling system</t>
-  </si>
-  <si>
-    <t>(295008AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Moisture carryover</t>
-  </si>
-  <si>
-    <t>(500000EK2.03) Knowledge of the relationship between the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION and the following systems or components: (CFR: 41.7 / 45.8) Containment atmosphere control system</t>
-  </si>
-  <si>
-    <t>(218000A4.05) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS timer reset</t>
-  </si>
-  <si>
-    <t>(510000K4.05) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate intake pathway</t>
-  </si>
-  <si>
-    <t>(215004K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(203000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(205000A2.06) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Pump trips </t>
-  </si>
-  <si>
-    <t>(263000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Voltage</t>
-  </si>
-  <si>
-    <t>(212000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.5 / 45.3) Logic channel arrangements</t>
-  </si>
-  <si>
-    <t>(261000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Reactor vessel level</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
-  </si>
-  <si>
-    <t>(215005A4.04) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) LPRM back panel switches, meters, and indicating lights</t>
-  </si>
-  <si>
-    <t>(223002K4.02) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Testability</t>
-  </si>
-  <si>
-    <t>(400000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) (BWR 4, 5, 6)</t>
-  </si>
-  <si>
-    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
-  </si>
-  <si>
-    <t>(264000A3.05) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Load shedding and sequencing</t>
-  </si>
-  <si>
-    <t>(209002A2.03) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(217000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(259002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Controller operation</t>
-  </si>
-  <si>
-    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291004K1.19) PUMPS (CFR: 41.3) (CENTRIFUGAL) Safety procedure and precautions associated with centrifugal pumps</t>
-  </si>
-  <si>
-    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
-  </si>
-  <si>
-    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
-  </si>
-  <si>
-    <t>(510000K4.08) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate cooling water supply to FPCCU heat exchangers</t>
-  </si>
-  <si>
-    <t>(215004K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(203000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization logic</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000K2.01) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(268000A4.01) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Sump integrators</t>
-  </si>
-  <si>
-    <t>(201001K4.07) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Testing SCRAM discharge volume isolation valves</t>
-  </si>
-  <si>
-    <t>(202001K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Drywell equipment/floor drain sump system</t>
-  </si>
-  <si>
-    <t>(216000K3.27) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core differential pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(226001A3.01) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Valve operation </t>
-  </si>
-  <si>
-    <t>(204000A2.01) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of component cooling water</t>
-  </si>
-  <si>
-    <t>(286000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) System pressure</t>
-  </si>
-  <si>
-    <t>(239003K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.4) System lineup</t>
-  </si>
-  <si>
-    <t>(290003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.7 / 45.7) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292008K1.21) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the relationship between steam production rate and reactor power given specific conditions</t>
-  </si>
-  <si>
-    <t>(292002K1.10) NEUTRON LIFE CYCLE (CFR: 41.1) Define shutdown margin</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(261000A2.11) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High containment pressure</t>
-  </si>
-  <si>
-    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(256000A2.09) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low feedwater heater level</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(259002A2.05) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of applicable plant air systems</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(205000A2.09) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor low water level</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(201001A2.14) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Low drive header pressure</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(226001A2.19) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low (or negative) suppression chamber pressure during system operation (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
     <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K3</t>
+    <t>A3</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>K4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295031</t>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
   </si>
   <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295027</t>
+    <t>295025</t>
   </si>
   <si>
     <t>295038</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295030</t>
   </si>
   <si>
     <t>295018</t>
   </si>
   <si>
-    <t>295030</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295012</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293009</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>268000</t>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>201001</t>
   </si>
   <si>
-    <t>202001</t>
-  </si>
-  <si>
     <t>216000</t>
   </si>
   <si>
     <t>226001</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>290001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1463,7 +1463,7 @@
         <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,7 +1545,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
         <v>114</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
         <v>114</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1956,7 +1956,7 @@
         <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
         <v>109</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
         <v>109</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
         <v>108</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D81" t="s">
         <v>109</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D83" t="s">
         <v>109</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
         <v>108</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D86" t="s">
         <v>109</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
         <v>109</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
         <v>108</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
         <v>109</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D91" t="s">
         <v>109</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
         <v>109</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
